--- a/table structure.xlsx
+++ b/table structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit\Documents\groceryToHome\groceryToHomeService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B3A137-9331-4987-81E4-276EE4F71A7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77028D01-C9B6-4B56-83BA-00E89E1DF7E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4BAA06D7-82BE-432C-BCF5-2AFCBD773719}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t xml:space="preserve">user </t>
   </si>
@@ -85,6 +85,81 @@
   </si>
   <si>
     <t>expiry date</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>dairy</t>
+  </si>
+  <si>
+    <t>snacks</t>
+  </si>
+  <si>
+    <t>foodgrains</t>
+  </si>
+  <si>
+    <t>gourmet</t>
+  </si>
+  <si>
+    <t>branded foods</t>
+  </si>
+  <si>
+    <t>household utensils</t>
+  </si>
+  <si>
+    <t>beverages</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>oranges</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>biscuits</t>
+  </si>
+  <si>
+    <t>namkeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dal </t>
+  </si>
+  <si>
+    <t>pulses</t>
+  </si>
+  <si>
+    <t>dahi</t>
+  </si>
+  <si>
+    <t>almonds</t>
+  </si>
+  <si>
+    <t>surfexcel</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>eggs</t>
+  </si>
+  <si>
+    <t>products</t>
   </si>
 </sst>
 </file>
@@ -445,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B621A13-A8C4-4F2D-98DB-A035DC9B6580}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,9 +533,15 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="13" max="13" width="14.21875" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +557,38 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -493,8 +604,38 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -507,8 +648,29 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -521,8 +683,11 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -532,21 +697,45 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
